--- a/biology/Zoologie/Baetidae/Baetidae.xlsx
+++ b/biology/Zoologie/Baetidae/Baetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Baetidae constituent la famille la plus importante d'insectes de l'ordre des éphéméroptères avec plus de 850 espèces réparties en un peu moins de 100 genres. 
 Ces espèces sont une source de nourriture pour de nombreux poissons, amphibiens, oiseaux et chauve-souris insectivores. 
@@ -512,7 +524,9 @@
           <t>Liste des genres les plus répandus en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Baetis
 Centroptilum
